--- a/data/trans_orig/P1429-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20911</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13832</v>
+        <v>13098</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31054</v>
+        <v>31126</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02026786834728028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01340632487579332</v>
+        <v>0.01269501742071782</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03009928354644062</v>
+        <v>0.03016903494095641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -765,19 +765,19 @@
         <v>100953</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83601</v>
+        <v>81752</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119690</v>
+        <v>119674</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07676353480811067</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06356945361190192</v>
+        <v>0.06216371996382452</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09101139404183449</v>
+        <v>0.09099902269948046</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -786,19 +786,19 @@
         <v>121863</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100572</v>
+        <v>101495</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144720</v>
+        <v>146732</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0519267406899943</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04285450961042269</v>
+        <v>0.04324780872415836</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06166587574255278</v>
+        <v>0.06252328390955184</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1010812</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1000669</v>
+        <v>1000597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1017891</v>
+        <v>1018625</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9797321316527198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9699007164535591</v>
+        <v>0.9698309650590435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9865936751242066</v>
+        <v>0.9873049825792821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1193</v>
@@ -836,19 +836,19 @@
         <v>1214160</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1195423</v>
+        <v>1195439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1231512</v>
+        <v>1233361</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9232364651918893</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9089886059581654</v>
+        <v>0.9090009773005195</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9364305463880981</v>
+        <v>0.9378362800361755</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2209</v>
@@ -857,19 +857,19 @@
         <v>2224972</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2202115</v>
+        <v>2200103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2246263</v>
+        <v>2245340</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9480732593100057</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9383341242574471</v>
+        <v>0.9374767160904477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9571454903895769</v>
+        <v>0.9567521912758413</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>9577</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4749</v>
+        <v>4577</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18455</v>
+        <v>19400</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005655663807922116</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002804159729321718</v>
+        <v>0.002702659023812401</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0108980887774114</v>
+        <v>0.01145587947153415</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -982,19 +982,19 @@
         <v>37776</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26271</v>
+        <v>26705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52961</v>
+        <v>50412</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02379314850370493</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01654677250180047</v>
+        <v>0.01682009510832332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03335781865383605</v>
+        <v>0.03175219739070705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -1003,19 +1003,19 @@
         <v>47353</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34682</v>
+        <v>35071</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63361</v>
+        <v>62436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01443214790967026</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01057034611089613</v>
+        <v>0.0106887792402252</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01931105962403809</v>
+        <v>0.01902913998604436</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1683836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1674958</v>
+        <v>1674013</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1688664</v>
+        <v>1688836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9943443361920778</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9891019112225889</v>
+        <v>0.9885441205284669</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9971958402706783</v>
+        <v>0.9972973409761876</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1518</v>
@@ -1053,19 +1053,19 @@
         <v>1549897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1534712</v>
+        <v>1537261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1561402</v>
+        <v>1560968</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.976206851496295</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9666421813461641</v>
+        <v>0.9682478026092929</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9834532274982003</v>
+        <v>0.9831799048916766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3158</v>
@@ -1074,19 +1074,19 @@
         <v>3233733</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3217725</v>
+        <v>3218650</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3246404</v>
+        <v>3246015</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9855678520903297</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9806889403759619</v>
+        <v>0.9809708600139558</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9894296538891039</v>
+        <v>0.9893112207597748</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3338</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9403</v>
+        <v>9076</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006053574475333575</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001500978120614412</v>
+        <v>0.001512626980201386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0170519026589085</v>
+        <v>0.01645968228037158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>6563</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2743</v>
+        <v>2814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12376</v>
+        <v>13900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01377558522214604</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005756877377926276</v>
+        <v>0.005906797865863455</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02597686264960759</v>
+        <v>0.02917664423580271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1220,19 +1220,19 @@
         <v>9901</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5511</v>
+        <v>4781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17993</v>
+        <v>17926</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009632856167625848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005361905174296607</v>
+        <v>0.004651903608555003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01750550252018004</v>
+        <v>0.01744063821626304</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>548070</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>542005</v>
+        <v>542332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>550580</v>
+        <v>550574</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9939464255246664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9829480973410917</v>
+        <v>0.9835403177196286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984990218793856</v>
+        <v>0.9984873730197986</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>445</v>
@@ -1270,19 +1270,19 @@
         <v>469849</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>464036</v>
+        <v>462512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473669</v>
+        <v>473598</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9862244147778539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9740231373503924</v>
+        <v>0.9708233557641972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9942431226220738</v>
+        <v>0.9940932021341365</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>969</v>
@@ -1291,19 +1291,19 @@
         <v>1017919</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1009827</v>
+        <v>1009894</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1022309</v>
+        <v>1023039</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9903671438323741</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9824944974798201</v>
+        <v>0.9825593617837369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9946380948257035</v>
+        <v>0.9953480963914449</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>33826</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23369</v>
+        <v>23840</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47067</v>
+        <v>45657</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01032374069643581</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007132202488256315</v>
+        <v>0.007276042163943992</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01436478432986588</v>
+        <v>0.01393444595280612</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -1416,19 +1416,19 @@
         <v>145291</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123413</v>
+        <v>122922</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169572</v>
+        <v>168411</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04299579756607409</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03652129665724761</v>
+        <v>0.03637608336102161</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05018124486221819</v>
+        <v>0.04983772481903048</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>175</v>
@@ -1437,19 +1437,19 @@
         <v>179117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155424</v>
+        <v>153025</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>210080</v>
+        <v>205650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02691172583257259</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02335187974376615</v>
+        <v>0.02299141027019526</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03156372192332656</v>
+        <v>0.03089810107108928</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3242717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3229476</v>
+        <v>3230886</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3253174</v>
+        <v>3252703</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9896762593035642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9856352156701335</v>
+        <v>0.986065554047194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9928677975117436</v>
+        <v>0.9927239578360562</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3156</v>
@@ -1487,19 +1487,19 @@
         <v>3233906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3209625</v>
+        <v>3210786</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3255784</v>
+        <v>3256275</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9570042024339259</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9498187551377812</v>
+        <v>0.9501622751809693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9634787033427523</v>
+        <v>0.9636239166389783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6336</v>
@@ -1508,19 +1508,19 @@
         <v>6476624</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6445661</v>
+        <v>6450091</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6500317</v>
+        <v>6502716</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9730882741674274</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9684362780766735</v>
+        <v>0.9691018989289107</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9766481202562338</v>
+        <v>0.9770085897298048</v>
       </c>
     </row>
     <row r="15">
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13814</v>
+        <v>12931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003414711675640742</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01418830929076274</v>
+        <v>0.01328066477712543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -1872,19 +1872,19 @@
         <v>109342</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90440</v>
+        <v>91580</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132043</v>
+        <v>134128</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08180033801208549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06765945855220494</v>
+        <v>0.06851233948919681</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09878392497780571</v>
+        <v>0.1003431814674753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -1893,19 +1893,19 @@
         <v>112666</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91935</v>
+        <v>93727</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136382</v>
+        <v>135380</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04876633324470005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03979304936472348</v>
+        <v>0.04056850348100535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05903160904990434</v>
+        <v>0.05859755573665315</v>
       </c>
     </row>
     <row r="5">
@@ -1922,7 +1922,7 @@
         <v>970315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>959826</v>
+        <v>960709</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>973640</v>
@@ -1931,7 +1931,7 @@
         <v>0.9965852883243592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9858116907092372</v>
+        <v>0.9867193352228746</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1943,19 +1943,19 @@
         <v>1227346</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1204645</v>
+        <v>1202560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1246248</v>
+        <v>1245108</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9181996619879145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9012160750221944</v>
+        <v>0.8996568185325249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9323405414477951</v>
+        <v>0.9314876605108032</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2050</v>
@@ -1964,19 +1964,19 @@
         <v>2197662</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2173946</v>
+        <v>2174948</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2218393</v>
+        <v>2216601</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9512336667553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9409683909500954</v>
+        <v>0.9414024442633468</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9602069506352765</v>
+        <v>0.9594314965189945</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>3040</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8177</v>
+        <v>8066</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001548061307096032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0004992178538448691</v>
+        <v>0.0004975727378441274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.004163478759867803</v>
+        <v>0.004107246057121818</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2089,19 +2089,19 @@
         <v>24685</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15665</v>
+        <v>16482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36458</v>
+        <v>37641</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01406852686141718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008928191209112819</v>
+        <v>0.00939350459149132</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02077851736823538</v>
+        <v>0.02145275152747548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -2110,19 +2110,19 @@
         <v>27725</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18542</v>
+        <v>18597</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40390</v>
+        <v>40663</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007455824355332863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00498622665929147</v>
+        <v>0.005001145945356084</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01086168061733776</v>
+        <v>0.01093513568161952</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1960917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1955780</v>
+        <v>1955891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1962977</v>
+        <v>1962980</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9984519386929039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9958365212401319</v>
+        <v>0.9958927539428781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9995007821461551</v>
+        <v>0.9995024272621559</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1610</v>
@@ -2160,19 +2160,19 @@
         <v>1729907</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1718134</v>
+        <v>1716951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1738927</v>
+        <v>1738110</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9859314731385829</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9792214826317647</v>
+        <v>0.9785472484725245</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9910718087908872</v>
+        <v>0.9906064954085086</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3463</v>
@@ -2181,19 +2181,19 @@
         <v>3690824</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3678159</v>
+        <v>3677886</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3700007</v>
+        <v>3699952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9925441756446671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9891383193826623</v>
+        <v>0.9890648643183805</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9950137733407085</v>
+        <v>0.9949988540546439</v>
       </c>
     </row>
     <row r="9">
@@ -2298,19 +2298,19 @@
         <v>8339</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3505</v>
+        <v>3773</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17326</v>
+        <v>17121</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01818205412745685</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007641964894322743</v>
+        <v>0.008227492953522901</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03777715899895095</v>
+        <v>0.03733132448327919</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -2319,19 +2319,19 @@
         <v>8339</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3597</v>
+        <v>3821</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17255</v>
+        <v>18020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008872892236893876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003827816470849633</v>
+        <v>0.004066184736380769</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01836050057078391</v>
+        <v>0.01917442150068186</v>
       </c>
     </row>
     <row r="11">
@@ -2361,19 +2361,19 @@
         <v>450292</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>441305</v>
+        <v>441510</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>455126</v>
+        <v>454858</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9818179458725431</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9622228410010495</v>
+        <v>0.9626686755167219</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9923580351056778</v>
+        <v>0.9917725070464771</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>843</v>
@@ -2382,19 +2382,19 @@
         <v>931474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>922558</v>
+        <v>921793</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>936216</v>
+        <v>935992</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9911271077631061</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9816394994292161</v>
+        <v>0.9808255784993181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9961721835291504</v>
+        <v>0.9959338152636192</v>
       </c>
     </row>
     <row r="12">
@@ -2486,19 +2486,19 @@
         <v>6365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2073</v>
+        <v>2041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16092</v>
+        <v>15208</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001861783623142596</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0006063541048958346</v>
+        <v>0.0005969104623994382</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0047070447516867</v>
+        <v>0.004448407183547615</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>131</v>
@@ -2507,19 +2507,19 @@
         <v>142365</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>119785</v>
+        <v>118700</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>168816</v>
+        <v>166944</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04010379539243872</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03374319082584607</v>
+        <v>0.03343737558424013</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04755513211530665</v>
+        <v>0.0470277805139289</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>136</v>
@@ -2528,19 +2528,19 @@
         <v>148730</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124235</v>
+        <v>125565</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173920</v>
+        <v>175160</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02134259577172469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01782763908285791</v>
+        <v>0.01801841471943044</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02495736525889904</v>
+        <v>0.02513530582058925</v>
       </c>
     </row>
     <row r="14">
@@ -2557,19 +2557,19 @@
         <v>3412414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3402687</v>
+        <v>3403571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3416706</v>
+        <v>3416738</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9981382163768574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9952929552483134</v>
+        <v>0.9955515928164524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9993936458951042</v>
+        <v>0.9994030895376006</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3160</v>
@@ -2578,19 +2578,19 @@
         <v>3407546</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3381095</v>
+        <v>3382967</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3430126</v>
+        <v>3431211</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9598962046075613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9524448678846932</v>
+        <v>0.9529722194860712</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9662568091741538</v>
+        <v>0.9665626244157601</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6356</v>
@@ -2599,19 +2599,19 @@
         <v>6819960</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6794770</v>
+        <v>6793530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6844455</v>
+        <v>6843125</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9786574042282753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9750426347411011</v>
+        <v>0.9748646941794108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9821723609171421</v>
+        <v>0.9819815852805696</v>
       </c>
     </row>
     <row r="15">
@@ -2942,19 +2942,19 @@
         <v>4779</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1736</v>
+        <v>1595</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11717</v>
+        <v>10633</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006335597816162012</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002300987192052507</v>
+        <v>0.002113991923643596</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01553236829360957</v>
+        <v>0.0140957141386118</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -2963,19 +2963,19 @@
         <v>67524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51913</v>
+        <v>51643</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86873</v>
+        <v>85728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06788607009555953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05219167184298964</v>
+        <v>0.05192054154817697</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08733935896427043</v>
+        <v>0.08618810328271259</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -2984,19 +2984,19 @@
         <v>72303</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56060</v>
+        <v>56700</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91744</v>
+        <v>91189</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04133934858527429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03205265157700885</v>
+        <v>0.03241860836157893</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0524546967919855</v>
+        <v>0.05213776550137107</v>
       </c>
     </row>
     <row r="5">
@@ -3013,19 +3013,19 @@
         <v>749568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>742630</v>
+        <v>743714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>752611</v>
+        <v>752752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.993664402183838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9844676317063904</v>
+        <v>0.985904285861388</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976990128079475</v>
+        <v>0.9978860080763564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>835</v>
@@ -3034,19 +3034,19 @@
         <v>927136</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>907787</v>
+        <v>908932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>942747</v>
+        <v>943017</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9321139299044405</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9126606410357294</v>
+        <v>0.9138118967172874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9478083281570103</v>
+        <v>0.9480794584518228</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1592</v>
@@ -3055,19 +3055,19 @@
         <v>1676704</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1657263</v>
+        <v>1657818</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1692947</v>
+        <v>1692307</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9586606514147257</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9475453032080144</v>
+        <v>0.9478622344986288</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9679473484229909</v>
+        <v>0.9675813916384211</v>
       </c>
     </row>
     <row r="6">
@@ -3159,19 +3159,19 @@
         <v>4799</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1669</v>
+        <v>1819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11115</v>
+        <v>10367</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002311029001492179</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.000803627586851293</v>
+        <v>0.0008758108430862341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005353266159588701</v>
+        <v>0.004992837787465238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -3180,19 +3180,19 @@
         <v>44344</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32337</v>
+        <v>33211</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59726</v>
+        <v>59962</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02230239626667605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01626363549759824</v>
+        <v>0.01670301962918072</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03003885174132648</v>
+        <v>0.03015736683563588</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -3201,19 +3201,19 @@
         <v>49142</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36861</v>
+        <v>37386</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65273</v>
+        <v>66683</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0120900983592911</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009068703067396508</v>
+        <v>0.009197820267227676</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01605858453744454</v>
+        <v>0.01640547117696856</v>
       </c>
     </row>
     <row r="8">
@@ -3230,19 +3230,19 @@
         <v>2071586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2065270</v>
+        <v>2066018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2074716</v>
+        <v>2074566</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9976889709985078</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9946467338404114</v>
+        <v>0.9950071622125374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9991963724131487</v>
+        <v>0.9991241891569137</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1868</v>
@@ -3251,19 +3251,19 @@
         <v>1943956</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1928574</v>
+        <v>1928338</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1955963</v>
+        <v>1955089</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9776976037333239</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9699611482586735</v>
+        <v>0.969842633164364</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9837363645024018</v>
+        <v>0.9832969803708193</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3815</v>
@@ -3272,19 +3272,19 @@
         <v>4015543</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3999412</v>
+        <v>3998002</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4027824</v>
+        <v>4027299</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9879099016407089</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9839414154625554</v>
+        <v>0.9835945288230313</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9909312969326034</v>
+        <v>0.9908021797327723</v>
       </c>
     </row>
     <row r="9">
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7217</v>
+        <v>7881</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004012042326069735</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01319632481817772</v>
+        <v>0.01440999434158204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3397,19 +3397,19 @@
         <v>10296</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4954</v>
+        <v>4282</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19297</v>
+        <v>18480</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01874865438335342</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009021210716847956</v>
+        <v>0.007798101979969244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03514126279119516</v>
+        <v>0.03365172972650825</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3418,19 +3418,19 @@
         <v>12490</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6210</v>
+        <v>6303</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21161</v>
+        <v>21719</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01139550238239871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005666252709776011</v>
+        <v>0.005750536338314106</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01930672143083664</v>
+        <v>0.019816313666955</v>
       </c>
     </row>
     <row r="11">
@@ -3447,7 +3447,7 @@
         <v>544692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>539669</v>
+        <v>539005</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -3456,7 +3456,7 @@
         <v>0.9959879576739302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9868036751818214</v>
+        <v>0.9855900056584178</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3468,19 +3468,19 @@
         <v>538844</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>529843</v>
+        <v>530660</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>544186</v>
+        <v>544858</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9812513456166466</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9648587372088048</v>
+        <v>0.9663482702734913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9909787892831521</v>
+        <v>0.9922018980200308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1016</v>
@@ -3489,19 +3489,19 @@
         <v>1083537</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1074866</v>
+        <v>1074308</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1089817</v>
+        <v>1089724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9886044976176013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9806932785691633</v>
+        <v>0.9801836863330452</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9943337472902239</v>
+        <v>0.994249463661686</v>
       </c>
     </row>
     <row r="12">
@@ -3593,19 +3593,19 @@
         <v>11772</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6046</v>
+        <v>6273</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20354</v>
+        <v>20658</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003485282997472977</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001789885335149207</v>
+        <v>0.001857327167471396</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.00602615473740148</v>
+        <v>0.006116147716645827</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -3614,19 +3614,19 @@
         <v>122163</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101842</v>
+        <v>100370</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>148374</v>
+        <v>148245</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03458652056126284</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02883316974850119</v>
+        <v>0.02841648853247689</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04200731829523355</v>
+        <v>0.04197075807255209</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -3635,19 +3635,19 @@
         <v>133935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108843</v>
+        <v>110210</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159427</v>
+        <v>158978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01938357161739842</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01575222275365155</v>
+        <v>0.01595002575355816</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02307291090511579</v>
+        <v>0.02300781376969042</v>
       </c>
     </row>
     <row r="14">
@@ -3664,19 +3664,19 @@
         <v>3365846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3357264</v>
+        <v>3356960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3371572</v>
+        <v>3371345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.996514717002527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9939738452625986</v>
+        <v>0.9938838522833542</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982101146648508</v>
+        <v>0.9981426728325286</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3220</v>
@@ -3685,19 +3685,19 @@
         <v>3409937</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3383726</v>
+        <v>3383855</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3430258</v>
+        <v>3431730</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9654134794387371</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9579926817047666</v>
+        <v>0.9580292419274479</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.971166830251499</v>
+        <v>0.9715835114675231</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6423</v>
@@ -3706,19 +3706,19 @@
         <v>6775783</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6750291</v>
+        <v>6750740</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6800875</v>
+        <v>6799508</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9806164283826015</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9769270890948842</v>
+        <v>0.9769921862303096</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9842477772463485</v>
+        <v>0.9840499742464418</v>
       </c>
     </row>
     <row r="15">
@@ -4049,19 +4049,19 @@
         <v>12033</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7244</v>
+        <v>7014</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19186</v>
+        <v>18634</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02097993850800269</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01262937775866323</v>
+        <v>0.01222925668471775</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03345014317615373</v>
+        <v>0.03248879105504408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>182</v>
@@ -4070,19 +4070,19 @@
         <v>94524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81425</v>
+        <v>82093</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>108724</v>
+        <v>109696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1157332187937526</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09969482117399314</v>
+        <v>0.1005131169769004</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1331191911844922</v>
+        <v>0.1343089684836886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -4091,19 +4091,19 @@
         <v>106557</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92513</v>
+        <v>91724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122673</v>
+        <v>122137</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07664328771869705</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06654150167433255</v>
+        <v>0.06597437102231364</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08823468341042558</v>
+        <v>0.0878490402592831</v>
       </c>
     </row>
     <row r="5">
@@ -4120,19 +4120,19 @@
         <v>561528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>554375</v>
+        <v>554927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>566317</v>
+        <v>566547</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9790200614919972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9665498568238468</v>
+        <v>0.9675112089449558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9873706222413369</v>
+        <v>0.9877707433152821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1237</v>
@@ -4141,19 +4141,19 @@
         <v>722217</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>708017</v>
+        <v>707045</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>735316</v>
+        <v>734648</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8842667812062472</v>
+        <v>0.8842667812062474</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8668808088155083</v>
+        <v>0.8656910315163114</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9003051788260074</v>
+        <v>0.8994868830230995</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1905</v>
@@ -4162,19 +4162,19 @@
         <v>1283745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1267629</v>
+        <v>1268165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1297789</v>
+        <v>1298578</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9233567122813029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9117653165895742</v>
+        <v>0.912150959740717</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9334584983256674</v>
+        <v>0.9340256289776866</v>
       </c>
     </row>
     <row r="6">
@@ -4266,19 +4266,19 @@
         <v>14892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7887</v>
+        <v>7823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29758</v>
+        <v>30070</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006680529536656575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003538073478307592</v>
+        <v>0.003509227496992192</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01334930502456948</v>
+        <v>0.01348920961985676</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>104</v>
@@ -4287,19 +4287,19 @@
         <v>61269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50248</v>
+        <v>50356</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76043</v>
+        <v>76729</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02830685586798121</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02321503545240516</v>
+        <v>0.02326494029361186</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03513234873740569</v>
+        <v>0.03544935661395497</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -4308,19 +4308,19 @@
         <v>76161</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62679</v>
+        <v>61061</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93423</v>
+        <v>93559</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01733436404609416</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01426588038121352</v>
+        <v>0.01389743223628823</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02126312284749646</v>
+        <v>0.02129414623429509</v>
       </c>
     </row>
     <row r="8">
@@ -4337,19 +4337,19 @@
         <v>2214308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2199442</v>
+        <v>2199130</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2221313</v>
+        <v>2221377</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9933194704633435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9866506949754305</v>
+        <v>0.9865107903801434</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9964619265216925</v>
+        <v>0.996490772503008</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2807</v>
@@ -4358,19 +4358,19 @@
         <v>2103192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2088418</v>
+        <v>2087732</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2114213</v>
+        <v>2114105</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9716931441320188</v>
+        <v>0.9716931441320186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9648676512625943</v>
+        <v>0.9645506433860449</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9767849645475948</v>
+        <v>0.9767350597063881</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4784</v>
@@ -4379,19 +4379,19 @@
         <v>4317501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4300239</v>
+        <v>4300103</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4330983</v>
+        <v>4332601</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9826656359539059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.978736877152503</v>
+        <v>0.9787058537657047</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9857341196187864</v>
+        <v>0.9861025677637119</v>
       </c>
     </row>
     <row r="9">
@@ -4483,19 +4483,19 @@
         <v>2582</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>664</v>
+        <v>860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6264</v>
+        <v>6731</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003633856436826726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0009348545100698556</v>
+        <v>0.001210113216919096</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008817122543930325</v>
+        <v>0.009474128834332149</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -4504,19 +4504,19 @@
         <v>19617</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14070</v>
+        <v>13809</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27655</v>
+        <v>27793</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02679702823638806</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01922062790223796</v>
+        <v>0.01886284200721295</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03777694111638508</v>
+        <v>0.03796608878128639</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -4525,19 +4525,19 @@
         <v>22198</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16230</v>
+        <v>15724</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30102</v>
+        <v>30478</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01538880605100364</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01125098800217095</v>
+        <v>0.01090021905400852</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02086768430451908</v>
+        <v>0.0211282669941932</v>
       </c>
     </row>
     <row r="11">
@@ -4554,19 +4554,19 @@
         <v>707876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>704194</v>
+        <v>703727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>709794</v>
+        <v>709598</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9963661435631732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9911828774560698</v>
+        <v>0.9905258711656679</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9990651454899302</v>
+        <v>0.9987898867830809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>967</v>
@@ -4575,19 +4575,19 @@
         <v>712434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>704396</v>
+        <v>704258</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>717981</v>
+        <v>718242</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9732029717636119</v>
+        <v>0.9732029717636117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9622230588836149</v>
+        <v>0.962033911218714</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.980779372097762</v>
+        <v>0.9811371579927872</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1643</v>
@@ -4596,19 +4596,19 @@
         <v>1420311</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1412407</v>
+        <v>1412031</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1426279</v>
+        <v>1426785</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9846111939489963</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9791323156954809</v>
+        <v>0.9788717330058068</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9887490119978291</v>
+        <v>0.9890997809459915</v>
       </c>
     </row>
     <row r="12">
@@ -4700,19 +4700,19 @@
         <v>29507</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20478</v>
+        <v>20376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45727</v>
+        <v>44981</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008398911466540629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00582896795353576</v>
+        <v>0.005799940863122925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01301576534788312</v>
+        <v>0.01280329868170827</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>319</v>
@@ -4721,19 +4721,19 @@
         <v>175410</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156343</v>
+        <v>157329</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>197866</v>
+        <v>194241</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04723888366020514</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04210418528405906</v>
+        <v>0.04236960891576912</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05328642480997944</v>
+        <v>0.0523102349541574</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>354</v>
@@ -4742,19 +4742,19 @@
         <v>204917</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>181377</v>
+        <v>183927</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>230435</v>
+        <v>231554</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02835645430108785</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02509896768394219</v>
+        <v>0.02545184273656399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03188760865397717</v>
+        <v>0.03204244711090786</v>
       </c>
     </row>
     <row r="14">
@@ -4771,19 +4771,19 @@
         <v>3483713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3467493</v>
+        <v>3468239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3492742</v>
+        <v>3492844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9916010885334594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9869842346521182</v>
+        <v>0.9871967013182916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9941710320464643</v>
+        <v>0.994200059136877</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5011</v>
@@ -4792,19 +4792,19 @@
         <v>3537843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3515387</v>
+        <v>3519012</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3556910</v>
+        <v>3555924</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9527611163397949</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9467135751900205</v>
+        <v>0.9476897650458426</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9578958147159408</v>
+        <v>0.9576303910842308</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8332</v>
@@ -4813,19 +4813,19 @@
         <v>7021556</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6996038</v>
+        <v>6994919</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7045096</v>
+        <v>7042546</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9716435456989122</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9681123913460236</v>
+        <v>0.9679575528890922</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9749010323160577</v>
+        <v>0.9745481572634361</v>
       </c>
     </row>
     <row r="15">
